--- a/NWO_Control.xlsx
+++ b/NWO_Control.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konkr\OneDrive\Έγγραφα\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9001FFAA-8393-441A-838F-2FF7694BDAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32260B2-D941-44FF-B9F0-FAE070BC8C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{48624885-0AAB-4687-AE04-C5692DDE392F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Report" sheetId="3" r:id="rId1"/>
     <sheet name="US1" sheetId="1" r:id="rId2"/>
     <sheet name="US2" sheetId="2" r:id="rId3"/>
-    <sheet name="US3" sheetId="4" r:id="rId4"/>
+    <sheet name="US3" sheetId="8" r:id="rId4"/>
     <sheet name="US4" sheetId="5" r:id="rId5"/>
-    <sheet name="US5" sheetId="6" r:id="rId6"/>
+    <sheet name="US3 (2)" sheetId="9" r:id="rId6"/>
     <sheet name="US..." sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="100">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -279,6 +279,69 @@
   </si>
   <si>
     <t>When I enter the page to view the terms, I can't return back to my previous step and I can only be redirected to home page</t>
+  </si>
+  <si>
+    <t>US3</t>
+  </si>
+  <si>
+    <t>US3_1</t>
+  </si>
+  <si>
+    <t>Search products</t>
+  </si>
+  <si>
+    <t>When I type a product in search bar, I want the correct product to appear on my screen</t>
+  </si>
+  <si>
+    <t>Click on search bar</t>
+  </si>
+  <si>
+    <t>Type the item I want to find</t>
+  </si>
+  <si>
+    <t>Item returned on my screen</t>
+  </si>
+  <si>
+    <t>Search bar open for typing</t>
+  </si>
+  <si>
+    <t>Search bar has wrong name</t>
+  </si>
+  <si>
+    <t>Search bar full name doesn’t appear before or after clicking it</t>
+  </si>
+  <si>
+    <t>US5_1</t>
+  </si>
+  <si>
+    <t>US5</t>
+  </si>
+  <si>
+    <t>As a user I want to use Promo Code for the order I have in the cart</t>
+  </si>
+  <si>
+    <t>Discount is displayed</t>
+  </si>
+  <si>
+    <t>Use valid promo code</t>
+  </si>
+  <si>
+    <t>US5_2</t>
+  </si>
+  <si>
+    <t>Use invalid promo code</t>
+  </si>
+  <si>
+    <t>When I use an invalid promo code, I want to see a message stating that my code is invalid and no discount has been added</t>
+  </si>
+  <si>
+    <t>Insert a valid promo code</t>
+  </si>
+  <si>
+    <t>Insert an invalid promo code</t>
+  </si>
+  <si>
+    <t>Invalid discount message displayed  and no discount added</t>
   </si>
 </sst>
 </file>
@@ -919,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC192840-8274-4346-A7E9-BBD1EE7DFCBA}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1360,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242611B2-332F-4034-BDFB-455B2DC6F743}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="91" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1901,13 +1964,141 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9036B47-914A-4ECB-AF8A-378182E28BCD}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E5ED73-9326-485C-A98C-0AA445D1C8A1}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="G10" sqref="A1:G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1925,13 +2116,201 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43583770-20CD-40BC-B90F-8152E742C6FB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4517A9EA-4973-4CD5-AE11-CE5F8D451A1E}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1" thickBot="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12" customHeight="1" thickBot="1"/>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="55.8" thickBot="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
